--- a/Wine_mag_definitions.xlsx
+++ b/Wine_mag_definitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dutch\Documents\WashU Data Bootcamp\13-ETL-Project\ETL_Assignment\Project_2_ETL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EBB020-9AF0-490A-AAD0-9B1551654E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA361840-072A-48EF-A12C-3094A164DECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78F87D2E-CB4F-4C88-B3D1-DC4172954997}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="100">
   <si>
     <t>https://www.kaggle.com/zynicide/wine-reviews</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>Table: wine_types</t>
+  </si>
+  <si>
+    <t>Table: wines</t>
   </si>
 </sst>
 </file>
@@ -1267,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5998E7C6-61C4-4555-B3D6-D4EC40B5C7A7}">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1382,7 +1385,7 @@
       </c>
       <c r="D6" s="35"/>
       <c r="F6" s="34" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="G6" s="35"/>
       <c r="N6" s="5"/>
@@ -1848,14 +1851,43 @@
       <c r="S29" s="5"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="L30" s="1"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
+      <c r="O30" s="12"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -1864,6 +1896,21 @@
       <c r="S31" s="5"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="52"/>
+      <c r="F32" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="50"/>
+      <c r="H32" s="1"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -1872,6 +1919,9 @@
       <c r="S32" s="5"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -1879,318 +1929,231 @@
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-    </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="41"/>
+      <c r="F35" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="48"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="C36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="F41" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="5"/>
+      <c r="F42" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="12" t="s">
+      <c r="B44" s="1"/>
+      <c r="C44" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="20" t="s">
+      <c r="I44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="18" t="s">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="I45" s="27"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="44"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="52"/>
-      <c r="F37" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="1"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="41"/>
-      <c r="F40" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" s="48"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="C41" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="F46" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="5"/>
-      <c r="F47" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="I50" s="27"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="44"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="C51" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C52" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="C58"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="5"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="5"/>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="12"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="12"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="5"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{008BBF6A-BAF9-469B-94E0-317D1BB49FF5}"/>
-    <hyperlink ref="A37" r:id="rId2" xr:uid="{B0A1124C-4FF6-46EC-9701-8ACA5FC13CAA}"/>
-    <hyperlink ref="A50" r:id="rId3" xr:uid="{7E2A73DC-A071-4ED5-BDBF-99A78A95F598}"/>
+    <hyperlink ref="A32" r:id="rId2" xr:uid="{B0A1124C-4FF6-46EC-9701-8ACA5FC13CAA}"/>
+    <hyperlink ref="A45" r:id="rId3" xr:uid="{7E2A73DC-A071-4ED5-BDBF-99A78A95F598}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId4"/>

--- a/Wine_mag_definitions.xlsx
+++ b/Wine_mag_definitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dutch\Documents\WashU Data Bootcamp\13-ETL-Project\ETL_Assignment\Project_2_ETL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA361840-072A-48EF-A12C-3094A164DECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A285F570-CD12-45BA-B027-8B75FC1074B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78F87D2E-CB4F-4C88-B3D1-DC4172954997}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="115">
   <si>
     <t>https://www.kaggle.com/zynicide/wine-reviews</t>
   </si>
@@ -142,9 +142,6 @@
     <t>https://en.wikipedia.org/wiki/List_of_countries_by_average_yearly_temperature</t>
   </si>
   <si>
-    <t># of records</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -301,15 +298,9 @@
     <t>avg_temp</t>
   </si>
   <si>
-    <t># of records: 129908</t>
-  </si>
-  <si>
     <t>as taster_name</t>
   </si>
   <si>
-    <t># of records: 77267</t>
-  </si>
-  <si>
     <t>Dataframe: df_wine_base and wine_data</t>
   </si>
   <si>
@@ -335,6 +326,60 @@
   </si>
   <si>
     <t>Table: wines</t>
+  </si>
+  <si>
+    <t>avg_f</t>
+  </si>
+  <si>
+    <t>avg_c</t>
+  </si>
+  <si>
+    <t>state_temps.csv</t>
+  </si>
+  <si>
+    <t>Dataframe: df_states_temps</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Average Temperature in F</t>
+  </si>
+  <si>
+    <t>Average Temperature in C</t>
+  </si>
+  <si>
+    <t>as state</t>
+  </si>
+  <si>
+    <t>as avg_F</t>
+  </si>
+  <si>
+    <t>as avg_C</t>
+  </si>
+  <si>
+    <t># of records: 243</t>
+  </si>
+  <si>
+    <t># of records: 129971</t>
+  </si>
+  <si>
+    <t># of records: 120915</t>
+  </si>
+  <si>
+    <t># of records: 15843</t>
+  </si>
+  <si>
+    <t># of records: 422</t>
+  </si>
+  <si>
+    <t># of records: 1205</t>
+  </si>
+  <si>
+    <t># of records: 691</t>
+  </si>
+  <si>
+    <t># of records: 50</t>
   </si>
 </sst>
 </file>
@@ -373,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,6 +461,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -570,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -586,7 +643,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -626,6 +682,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1270,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5998E7C6-61C4-4555-B3D6-D4EC40B5C7A7}">
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="82" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1320,13 +1386,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1338,17 +1404,17 @@
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="F3" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="46"/>
+      <c r="C3" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="F3" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="45"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -1357,8 +1423,8 @@
       <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>37</v>
+      <c r="A4" s="36" t="s">
+        <v>36</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -1377,17 +1443,17 @@
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="F6" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="35"/>
+      <c r="A6" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="F6" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="34"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -1401,7 +1467,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -1415,16 +1481,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -1438,16 +1504,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -1461,14 +1527,14 @@
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6"/>
       <c r="F10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -1482,14 +1548,14 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="6"/>
       <c r="F11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -1503,16 +1569,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -1526,16 +1592,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1549,16 +1615,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -1572,16 +1638,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -1595,14 +1661,14 @@
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="6"/>
       <c r="F16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -1616,13 +1682,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>35</v>
+        <v>87</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="G17" s="9"/>
       <c r="N17" s="5"/>
@@ -1637,7 +1703,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="6"/>
       <c r="N18" s="5"/>
@@ -1652,19 +1718,19 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="33"/>
-      <c r="I19" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="33"/>
+        <v>47</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="I19" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="34"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -1677,22 +1743,22 @@
         <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -1705,23 +1771,23 @@
       <c r="A21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>41</v>
+      <c r="C21" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -1731,19 +1797,19 @@
       <c r="S21" s="5"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>90</v>
+      <c r="A22" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>109</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="F22" s="24" t="s">
-        <v>35</v>
+      <c r="F22" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="G22" s="9"/>
-      <c r="I22" s="24" t="s">
-        <v>35</v>
+      <c r="I22" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="J22" s="9"/>
       <c r="N22" s="5"/>
@@ -1754,7 +1820,7 @@
       <c r="S22" s="5"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="15"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
@@ -1763,14 +1829,14 @@
       <c r="S23" s="5"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F24" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="33"/>
-      <c r="I24" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="33"/>
+      <c r="F24" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="I24" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="34"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
@@ -1779,17 +1845,17 @@
       <c r="S24" s="5"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>69</v>
+      <c r="G25" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
@@ -1799,17 +1865,17 @@
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>70</v>
+      <c r="G26" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -1819,12 +1885,14 @@
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F27" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="I27" s="24" t="s">
-        <v>35</v>
+      <c r="F27" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="J27" s="9"/>
       <c r="N27" s="5"/>
@@ -1835,6 +1903,12 @@
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F28" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="56" t="s">
+        <v>72</v>
+      </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -1843,6 +1917,10 @@
       <c r="S28" s="5"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F29" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="8"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
@@ -1851,22 +1929,8 @@
       <c r="S29" s="5"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="L30" s="1"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="12"/>
+      <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
@@ -1874,43 +1938,42 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="C31" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="F31" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
+      <c r="L31" s="1"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
+      <c r="O31" s="12"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="52"/>
-      <c r="F32" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="50"/>
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -1919,9 +1982,21 @@
       <c r="S32" s="5"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
-        <v>38</v>
-      </c>
+      <c r="A33" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="51"/>
+      <c r="F33" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="49"/>
+      <c r="H33" s="1"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -1929,63 +2004,57 @@
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="41"/>
-      <c r="F35" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="48"/>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="C36" s="4" t="s">
+      <c r="A36" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="F36" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="47"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="C37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="G37" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="C38" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>73</v>
@@ -1993,170 +2062,268 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+      <c r="F41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="F42" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="5"/>
+      <c r="F43" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C46" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="I46" s="26"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="43"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="F41" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="5"/>
-      <c r="F42" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="12" t="s">
+      <c r="B55" s="1"/>
+      <c r="C55" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="45" t="s">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="I45" s="27"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="44"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
+      <c r="B56" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="43"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="C53"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="5"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="5"/>
+      <c r="D61" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{008BBF6A-BAF9-469B-94E0-317D1BB49FF5}"/>
-    <hyperlink ref="A32" r:id="rId2" xr:uid="{B0A1124C-4FF6-46EC-9701-8ACA5FC13CAA}"/>
-    <hyperlink ref="A45" r:id="rId3" xr:uid="{7E2A73DC-A071-4ED5-BDBF-99A78A95F598}"/>
+    <hyperlink ref="A33" r:id="rId2" xr:uid="{B0A1124C-4FF6-46EC-9701-8ACA5FC13CAA}"/>
+    <hyperlink ref="A46" r:id="rId3" xr:uid="{7E2A73DC-A071-4ED5-BDBF-99A78A95F598}"/>
+    <hyperlink ref="A56" r:id="rId4" xr:uid="{35544D59-62BE-4D21-90B6-A9FCD158EA0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2175,17 +2342,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="35"/>
+      <c r="A1" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2193,7 +2360,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2201,15 +2368,15 @@
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2217,7 +2384,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2225,7 +2392,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2233,7 +2400,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2241,7 +2408,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2249,7 +2416,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2257,43 +2424,43 @@
         <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="33"/>
+      <c r="A13" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="32"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="33"/>
+      <c r="A17" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="32"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2301,21 +2468,21 @@
         <v>24</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="33"/>
+      <c r="A21" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="32"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2323,29 +2490,29 @@
         <v>26</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="48"/>
+      <c r="A25" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="47"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2353,7 +2520,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2361,7 +2528,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2369,7 +2536,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2377,7 +2544,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
